--- a/quote_app/quote_app/staticfiles/templates/quote_template.xlsx
+++ b/quote_app/quote_app/staticfiles/templates/quote_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aethersoft\quote_app\quote_app\quote_app\staticfiles\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5183C63C-9E6C-4687-941F-D85C0ACAC336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35875AF6-6205-4D8F-A9E9-09433E925648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70D2DF3C-24C8-4BB3-9F46-EF890C5C34FC}"/>
   </bookViews>
@@ -391,6 +391,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,18 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E304F97-C02A-4D0F-8D8C-8EB423B10091}">
   <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="110" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:F35"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="110" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,10 +1055,10 @@
       <c r="B6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
       <c r="I6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1070,12 +1070,12 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="4"/>
       <c r="I7" s="1" t="s">
         <v>19</v>
@@ -1088,12 +1088,12 @@
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="4"/>
       <c r="I8" s="1" t="s">
         <v>18</v>
@@ -1106,12 +1106,12 @@
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
@@ -1120,13 +1120,13 @@
       <c r="C11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="21" t="s">
         <v>10</v>
       </c>
@@ -1192,11 +1192,11 @@
     <row r="16" spans="2:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="28"/>
       <c r="J16" s="13"/>
       <c r="K16" s="12"/>
@@ -1205,11 +1205,11 @@
     <row r="17" spans="2:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -1218,11 +1218,11 @@
     <row r="18" spans="2:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="18"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -1231,11 +1231,11 @@
     <row r="19" spans="2:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -1244,11 +1244,11 @@
     <row r="20" spans="2:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="15"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -1257,11 +1257,11 @@
     <row r="21" spans="2:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="15"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -1270,11 +1270,11 @@
     <row r="22" spans="2:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="15"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -1283,11 +1283,11 @@
     <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
       <c r="I23" s="18"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -1295,11 +1295,11 @@
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="18"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -1308,45 +1308,45 @@
       <c r="B34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
     </row>
     <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
     </row>
     <row r="37" spans="2:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1365,7 +1365,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup scale="76" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="76" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>